--- a/medicine/Enfance/Claudia_Gray/Claudia_Gray.xlsx
+++ b/medicine/Enfance/Claudia_Gray/Claudia_Gray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claudia Gray, pseudonyme de Amy Vincent, née le 12 juin 1970 aux États-Unis, est une autrice américaine de science-fiction et de fantasy.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,39 +553,289 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Série La Haute République
-Phase I : La Lumière des Jedi
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série La Haute République</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phase I : La Lumière des Jedi
 En pleines ténèbres, Pocket, coll. « Star Wars » no 179, 2021 ((en) Into the Dark, 2021), trad. Julien Bétan, 448 p.  (ISBN 978-2-266-31549-4)
-La Chute de l'étoile, Pocket, coll. « Star Wars » no 188, 2022 ((en) The Fallen Star, 2022), trad. Sandy Julien, 464 p.  (ISBN 978-2-266-32498-4)
-Romans indépendants
-Étoiles perdues, Pocket Jeunesse, 2015 ((en) Lost Stars, 2015), trad. Nicolas Ancion et Axelle Demoulin, 573 p.  (ISBN 978-2-266-26261-3)Réédition, Pocket, coll. « Star Wars » no 184, 2021, 512 p.  (ISBN 978-2-266-31825-9)
+La Chute de l'étoile, Pocket, coll. « Star Wars » no 188, 2022 ((en) The Fallen Star, 2022), trad. Sandy Julien, 464 p.  (ISBN 978-2-266-32498-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Étoiles perdues, Pocket Jeunesse, 2015 ((en) Lost Stars, 2015), trad. Nicolas Ancion et Axelle Demoulin, 573 p.  (ISBN 978-2-266-26261-3)Réédition, Pocket, coll. « Star Wars » no 184, 2021, 512 p.  (ISBN 978-2-266-31825-9)
 Liens du sang, Pocket, coll. « Star Wars » no 142, 2017 ((en) Bloodline, 2016), trad. Lucile Galliot, 416 p.  (ISBN 978-2-266-27739-6)
 Leia : Princesse d'Alderaan, Pocket, coll. « Star Wars » no 177, 2021 ((en) Leia: Princess of Alderaan, 2017), trad. Nicolas Ancion et Axelle Demoulin, 400 p.  (ISBN 978-2-266-29207-8)
-Maître et Apprenti, Pocket, coll. « Star Wars » no 164, 2019 ((en) Master and Apprentice, 2019), trad. Nicolas Ancion et Axelle Demoulin, 464 p.  (ISBN 978-2-266-29865-0)
-Série Evernight
-Evernight - Livre I, Pocket Jeunesse, 2011 ((en) Evernight, 2008), trad. Cécile Chartres, 305 p.  (ISBN 978-2-266-19662-8)
+Maître et Apprenti, Pocket, coll. « Star Wars » no 164, 2019 ((en) Master and Apprentice, 2019), trad. Nicolas Ancion et Axelle Demoulin, 464 p.  (ISBN 978-2-266-29865-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Evernight</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Evernight - Livre I, Pocket Jeunesse, 2011 ((en) Evernight, 2008), trad. Cécile Chartres, 305 p.  (ISBN 978-2-266-19662-8)
 Evernight - Livre II, Pocket Jeunesse, 2011 ((en) Stargazer, 2009), trad. Cécile Chartres, 314 p.  (ISBN 978-2-266-19663-5)
 Evernight - Livre III, Pocket Jeunesse, 2012 ((en) Hourglass, 2010), trad. Cécile Chartres, 328 p.  (ISBN 978-2-266-22319-5)
 Evernight - Livre IV, Pocket Jeunesse, 2012 ((en) Afterlife, 2011), trad. Cécile Chartres, 374 p.  (ISBN 978-2-266-22756-8)
-Evernight - Livre V, Pocket Jeunesse, 2013 ((en) Balthazar, 2012), trad. Cécile Chartres, 382 p.  (ISBN 978-2-266-23607-2)
-Série Sortilèges et Malédiction
-Sortilèges et Malédiction, Ada, 2016 ((en) Spellcaster, 2013), trad. Émilie Hendrick-Hallet, 421 p.  (ISBN 978-2-89752-903-1)
+Evernight - Livre V, Pocket Jeunesse, 2013 ((en) Balthazar, 2012), trad. Cécile Chartres, 382 p.  (ISBN 978-2-266-23607-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Sortilèges et Malédiction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sortilèges et Malédiction, Ada, 2016 ((en) Spellcaster, 2013), trad. Émilie Hendrick-Hallet, 421 p.  (ISBN 978-2-89752-903-1)
 L'Allié, Ada, 2016 ((en) Steadfast, 2014), trad. Émilie Hendrick-Hallet, 372 p.  (ISBN 978-2-89752-909-3)
-L'Enchanteresse, Ada, 2016 ((en) Sorceress, 2015), trad. Émilie Hendrick-Hallet, 364 p.  (ISBN 978-2-89767-229-4)
-Série Firebird
-(en) A Thousand Pieces of You, 2014
+L'Enchanteresse, Ada, 2016 ((en) Sorceress, 2015), trad. Émilie Hendrick-Hallet, 364 p.  (ISBN 978-2-89767-229-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Firebird</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) A Thousand Pieces of You, 2014
 (en) Ten Thousand Skies Above You, 2015
-(en) A Million Worlds with You, 2016
-Série Génésis
-Le Défi des étoiles, Castelmore, 2017 ((en) Defy the Stars, 2017), trad. Isabelle Troin, 448 p.  (ISBN 978-2-36231-368-4)
+(en) A Million Worlds with You, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Génésis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Défi des étoiles, Castelmore, 2017 ((en) Defy the Stars, 2017), trad. Isabelle Troin, 448 p.  (ISBN 978-2-36231-368-4)
 Entre deux mondes, Castelmore, 2018 ((en) Defy the Worlds, 2018), trad. Isabelle Troin, 384 p.  (ISBN 978-2-36231-343-1)
-(en) Defy the Fates, 2019
-Série Mr. Darcy et Miss Tilney
-The Murder of Mr. Wickham (2022)
-The Late Mrs. Willoughby (2023)
-Romans indépendants
-(en) Fateful, 2011</t>
+(en) Defy the Fates, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Mr. Darcy et Miss Tilney</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Murder of Mr. Wickham (2022)
+The Late Mrs. Willoughby (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Gray</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Fateful, 2011</t>
         </is>
       </c>
     </row>
